--- a/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F816A9-544F-4F8F-8C3F-23B56AC8A9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010127F-1050-4E68-A0EB-489274CF62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="0" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="660" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="画面レイアウト" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$3:$AX$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$3:$AX$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>顧客情報登録画面</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Pass(確認) :</t>
   </si>
   <si>
-    <t>氏名 :</t>
-  </si>
-  <si>
     <t>性別 :</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>※「000-0000」のように「-」を書いてください</t>
-  </si>
-  <si>
-    <t>住所 :</t>
   </si>
   <si>
     <t>エラーメッセージを表示</t>
@@ -141,12 +135,77 @@
     <t>▽</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>氏名(苗字) :</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>氏名(名前) :</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>カナ(苗字) :</t>
+    <rPh sb="3" eb="5">
+      <t>ミョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>カナ(名前) :</t>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>住所（都道府県） :</t>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>住所（町大字） :</t>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオアザ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>住所（市区郡） :</t>
+    <rPh sb="3" eb="6">
+      <t>シクグン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>住所（建物） :</t>
+    <rPh sb="3" eb="5">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +297,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +317,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -393,11 +464,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -454,14 +593,38 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,31 +662,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,12 +725,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -559,103 +749,79 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,7 +1141,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1249,28 +1415,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="37"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="24"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -1280,26 +1446,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="40"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1309,26 +1475,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="40"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1338,28 +1504,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="40"/>
+      <c r="H13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1369,26 +1535,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="40"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1398,26 +1564,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1631,28 +1797,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="23" t="s">
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="25"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="33"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
@@ -1664,24 +1830,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="28"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="36"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
@@ -1693,28 +1859,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="23" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="25"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="33"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -1726,24 +1892,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="28"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="36"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -1755,28 +1921,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="23" t="s">
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="25"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="33"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1788,24 +1954,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="28"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="36"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1817,28 +1983,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="29">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="37">
         <v>44525</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="31"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="39"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -1850,24 +2016,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="42"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -1879,28 +2045,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="23" t="s">
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="25"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="33"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -1912,24 +2078,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="28"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="36"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -1941,28 +2107,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="29">
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="37">
         <v>44508</v>
       </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="31"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="39"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -1974,34 +2140,28 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="42"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -2010,6 +2170,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E17609-127C-496E-A1C7-1BCE6BB5D0EA}">
-  <dimension ref="A1:AY37"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+      <selection activeCell="AS23" sqref="AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2034,133 +2200,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="58" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="67" t="str">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="64" t="str">
         <f>表紙!O25</f>
         <v>顧客情報登録画面</v>
       </c>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="60" t="s">
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="55" t="s">
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="44" t="s">
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="55" t="s">
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="57"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="55"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="60" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62">
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="60">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="44" t="s">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="62">
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="60">
         <v>44525</v>
       </c>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="57"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="55"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -2385,19 +2551,19 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="80"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -2441,23 +2607,23 @@
       <c r="J8" s="3"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="77" t="s">
+      <c r="M8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="80"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="50"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2492,26 +2658,26 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="80"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="50"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2567,8 +2733,8 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -2599,34 +2765,32 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
+      <c r="K11" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="84"/>
       <c r="Q11" s="85"/>
       <c r="R11" s="85"/>
       <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="22" t="s">
+      <c r="T11" s="86"/>
+      <c r="U11" s="43" t="s">
         <v>32</v>
       </c>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -2653,40 +2817,36 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="83" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
+      <c r="K12" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -2708,37 +2868,37 @@
     </row>
     <row r="13" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="71"/>
-      <c r="AF13" s="72"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2760,42 +2920,50 @@
     </row>
     <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="4"/>
+      <c r="K14" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="78"/>
       <c r="W14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
+      <c r="AB14" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="81" t="s">
+        <v>30</v>
+      </c>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -2821,41 +2989,39 @@
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="3"/>
@@ -2879,35 +3045,39 @@
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
+      <c r="K16" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="3"/>
@@ -2922,46 +3092,48 @@
     </row>
     <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="K17" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="17"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
@@ -2977,49 +3149,45 @@
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="51"/>
+      <c r="K18" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
@@ -3035,43 +3203,45 @@
     <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="52"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="53"/>
-      <c r="AM19" s="54"/>
+      <c r="K19" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="89"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="89"/>
+      <c r="AJ19" s="89"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="90"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
       <c r="AP19" s="3"/>
@@ -3085,45 +3255,47 @@
       <c r="AX19" s="3"/>
     </row>
     <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
@@ -3137,262 +3309,270 @@
       <c r="AX20" s="3"/>
     </row>
     <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
     </row>
     <row r="22" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
     </row>
     <row r="23" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
+      <c r="L23" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
     </row>
     <row r="24" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="70"/>
+      <c r="AE24" s="70"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
     </row>
     <row r="25" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
     </row>
@@ -3414,25 +3594,25 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="13"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
       <c r="AK26" s="13"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="13"/>
@@ -3450,41 +3630,41 @@
     </row>
     <row r="27" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="9"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
       <c r="AK27" s="13"/>
       <c r="AL27" s="13"/>
       <c r="AM27" s="13"/>
@@ -3502,42 +3682,42 @@
     </row>
     <row r="28" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="9"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
       <c r="AL28" s="13"/>
       <c r="AM28" s="13"/>
       <c r="AN28" s="13"/>
@@ -3571,21 +3751,21 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="13"/>
       <c r="AE29" s="13"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="13"/>
@@ -3625,21 +3805,21 @@
       <c r="R30" s="9"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
       <c r="AJ30" s="13"/>
       <c r="AK30" s="13"/>
       <c r="AL30" s="13"/>
@@ -3674,24 +3854,24 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
       <c r="AJ31" s="13"/>
       <c r="AK31" s="13"/>
       <c r="AL31" s="13"/>
@@ -3732,121 +3912,120 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-      <c r="AN32" s="17"/>
-      <c r="AO32" s="17"/>
-      <c r="AP32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
       <c r="AV32" s="13"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
     </row>
     <row r="33" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AJ33" s="17"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-      <c r="AN33" s="17"/>
-      <c r="AO33" s="17"/>
-      <c r="AP33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
-      <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
       <c r="AV33" s="13"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="10"/>
+      <c r="AW33" s="3"/>
+      <c r="AX33" s="3"/>
     </row>
     <row r="34" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
       <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="13"/>
@@ -3862,37 +4041,36 @@
       <c r="AT34" s="13"/>
       <c r="AU34" s="13"/>
       <c r="AV34" s="13"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="10"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
     </row>
     <row r="35" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
       <c r="AC35" s="13"/>
@@ -3903,52 +4081,51 @@
       <c r="AH35" s="13"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="13"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
       <c r="AP35" s="13"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
       <c r="AV35" s="13"/>
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="9"/>
-      <c r="AY35" s="10"/>
+      <c r="AW35" s="3"/>
+      <c r="AX35" s="3"/>
     </row>
     <row r="36" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
       <c r="AD36" s="13"/>
       <c r="AE36" s="13"/>
       <c r="AF36" s="13"/>
@@ -3956,68 +4133,342 @@
       <c r="AH36" s="13"/>
       <c r="AI36" s="13"/>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="19"/>
-      <c r="AO36" s="19"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
+      <c r="AO36" s="13"/>
       <c r="AP36" s="13"/>
-      <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
-      <c r="AT36" s="19"/>
-      <c r="AU36" s="19"/>
+      <c r="AQ36" s="13"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
       <c r="AV36" s="13"/>
-      <c r="AW36" s="9"/>
-      <c r="AX36" s="9"/>
-      <c r="AY36" s="10"/>
+      <c r="AW36" s="3"/>
+      <c r="AX36" s="3"/>
     </row>
     <row r="37" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
-      <c r="AS37" s="10"/>
-      <c r="AT37" s="10"/>
-      <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="13"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+    </row>
+    <row r="38" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="13"/>
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="9"/>
+      <c r="AY38" s="10"/>
+    </row>
+    <row r="39" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+      <c r="AC39" s="13"/>
+      <c r="AD39" s="13"/>
+      <c r="AE39" s="13"/>
+      <c r="AF39" s="13"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="13"/>
+      <c r="AI39" s="13"/>
+      <c r="AJ39" s="13"/>
+      <c r="AK39" s="13"/>
+      <c r="AL39" s="13"/>
+      <c r="AM39" s="13"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="13"/>
+      <c r="AP39" s="13"/>
+      <c r="AQ39" s="13"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="9"/>
+      <c r="AY39" s="10"/>
+    </row>
+    <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13"/>
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="13"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="13"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="10"/>
+    </row>
+    <row r="41" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
+      <c r="AH41" s="13"/>
+      <c r="AI41" s="13"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="13"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="13"/>
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="9"/>
+      <c r="AY41" s="10"/>
+    </row>
+    <row r="42" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="10"/>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="10"/>
+      <c r="AU42" s="10"/>
+      <c r="AV42" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
+    <mergeCell ref="AI23:AM24"/>
+    <mergeCell ref="K4:AB5"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AD11"/>
     <mergeCell ref="K12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:AA8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:AA9"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="P11:Y11"/>
-    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="K18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:U16"/>
+    <mergeCell ref="AC23:AG24"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="L23:R24"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="X14:Y14"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -4030,21 +4481,15 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="P15:AC15"/>
-    <mergeCell ref="P16:AC16"/>
-    <mergeCell ref="L18:R19"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AD13:AF13"/>
     <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:U14"/>
-    <mergeCell ref="AC18:AG19"/>
-    <mergeCell ref="AI18:AM19"/>
-    <mergeCell ref="K4:AB5"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:AA8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="P9:AA9"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="AB14:AD14"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5010127F-1050-4E68-A0EB-489274CF62B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0ECB1-51E1-4A28-8880-821C9B6BB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="660" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10110" yWindow="180" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>顧客情報登録画面</t>
   </si>
@@ -77,126 +77,9 @@
     <t>修正日</t>
   </si>
   <si>
-    <t>会員情報登録画面</t>
-  </si>
-  <si>
-    <t>※青文字は必須項目</t>
-  </si>
-  <si>
-    <t>ID :</t>
-  </si>
-  <si>
-    <t>Pass :</t>
-  </si>
-  <si>
-    <t>Pass(確認) :</t>
-  </si>
-  <si>
-    <t>性別 :</t>
-  </si>
-  <si>
-    <t>生年月日 :</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>郵便番号 :</t>
-  </si>
-  <si>
-    <t>※「000-0000」のように「-」を書いてください</t>
-  </si>
-  <si>
-    <t>エラーメッセージを表示</t>
-  </si>
-  <si>
-    <t>ログイン画面へ</t>
-  </si>
-  <si>
-    <t>クリア</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>▽</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>氏名(苗字) :</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>氏名(名前) :</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>カナ(苗字) :</t>
-    <rPh sb="3" eb="5">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>カナ(名前) :</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>住所（都道府県） :</t>
-    <rPh sb="3" eb="7">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>住所（町大字） :</t>
-    <rPh sb="3" eb="4">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オオアザ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>住所（市区郡） :</t>
-    <rPh sb="3" eb="6">
-      <t>シクグン</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>住所（建物） :</t>
-    <rPh sb="3" eb="5">
-      <t>タテモノ</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -324,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -464,79 +347,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,9 +367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -599,32 +411,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,35 +462,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,101 +540,17 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,6 +567,3389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74916</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>192641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED18B6-1B5A-4A76-A72B-696C1F2235D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4484242" y="1048821"/>
+          <a:ext cx="1423398" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>青文字は必須項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16659</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>206674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F39F9C9-E745-4840-8F5F-016F768A0AA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707669" y="1284270"/>
+          <a:ext cx="1033372" cy="206674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5151</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>195974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6EBE0B-8989-4E28-95F2-BD3E80315294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707669" y="1487613"/>
+          <a:ext cx="1878044" cy="206676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139129</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>89041</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB42494A-EA09-4857-B806-AE538940EF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2022725" y="663540"/>
+          <a:ext cx="2646878" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報登録画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32108</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101958</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A0E5983-AD98-4E19-86A9-240B1C2502B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2215366" y="1455506"/>
+          <a:ext cx="583558" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Pass : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>10704</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>181938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>93669</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB2BAB0-93C9-4F76-A04D-75B61D9A99F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2365198" y="1252163"/>
+          <a:ext cx="425437" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>117277</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>205534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2091B808-871A-4C6B-B750-E1AFE6F3A8CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1776574" y="4441433"/>
+          <a:ext cx="1551377" cy="259045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101957</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>18864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FEC441-33E2-4B84-8265-47C8258F94D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1712360" y="1669551"/>
+          <a:ext cx="1086563" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Pass (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10705</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>192642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5153</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67301815-5E11-4048-909D-E4BC981F2638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2707671" y="1690957"/>
+          <a:ext cx="1878044" cy="206676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>192642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112660</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6D7E78-EE50-42AE-8D17-3D1863381E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1808680" y="2119046"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>苗字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>192641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112659</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC26A635-60AF-4D77-840B-2AD0234E0D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1808679" y="2333090"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カナ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>苗字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21404</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21403</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6264318-F4D8-4A2E-B3BC-A99A2CC740EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718370" y="2140450"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21405</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21404</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BDF735-AD62-4B5B-80F4-E6AA42209E0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718371" y="2354494"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>117726</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>214044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91256</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61671</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE17400-483E-41B8-BEAF-334DCCC369FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3499636" y="2140448"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>117725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>91255</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1751A28-B406-42F2-BFDA-C9A6724AA283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3499635" y="2354492"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カナ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>21403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171235</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066B823D-D676-4B98-8037-D708FD99DA63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4409326" y="2161852"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>21402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBCA511-2113-4DC8-899D-04387D564CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4409327" y="2375896"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21407</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21407</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160535</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294D61F2-5FCE-4479-B991-F33DC3E3AB5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718373" y="2729074"/>
+          <a:ext cx="513708" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85617</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>85617</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>203342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2B29A4D-DA65-4AC6-A049-F4D29C62B157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5179887" y="2729073"/>
+          <a:ext cx="684943" cy="256853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107022</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123362</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B94764-9626-4C43-87C9-19E73869FA8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819382" y="2696966"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>生年月日 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>117724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123361</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E062F0A2-4B64-4401-ACF7-17CAB2F6A1D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3157162" y="2729073"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>21404</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A19DB1B-A71D-4E79-A3FC-8DC3C914A137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467528" y="2729072"/>
+          <a:ext cx="278258" cy="224748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134064</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>211503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD74587-B306-44D4-A385-585EC8E624F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3681573" y="2718370"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>117725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53511</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171237</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425F7106-8414-4A0B-ABF0-2254CD9CD818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013343" y="2729073"/>
+          <a:ext cx="278258" cy="224748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149832</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>155469</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>211504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9357ED32-FBE9-49B4-8E5E-8118B349222A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4216686" y="2718371"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>117724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>5636</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>211503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F733DE2-F453-4976-8BF4-03B51E234E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4698286" y="2718370"/>
+          <a:ext cx="572856" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>性別 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74915</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7ECAE5-0082-453D-AAA3-63FEACFB42A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1958511" y="3189271"/>
+          <a:ext cx="851115" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>郵便番号 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10702</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10701</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF10BEBC-7A9B-4405-A206-4AD41F2C4FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696967" y="3221375"/>
+          <a:ext cx="1038117" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>10703</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>211503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC1049F8-A1CF-48A5-9CEF-646C0D0F421F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810002" y="3210674"/>
+          <a:ext cx="2493622" cy="211503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>000-0000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」のように「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」を書いてください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160533</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>112660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5DFAB4-653F-4D0A-A151-7874B8F76CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1530421" y="3403315"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>都道府県</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149830</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA73A354-579B-4DCB-8126-098A2F3DD471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519718" y="3617360"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>市区郡</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149831</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>192639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101958</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DA9276-0F9A-444B-BE61-37C3C0612A10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519719" y="3831403"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>町大字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149830</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>192640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>101957</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C157D30-2858-4F36-AE4E-1FA361022AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1519718" y="4045449"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>建物</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3279648-AC8C-4260-8994-6F4ECEA0AAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696967" y="3435421"/>
+          <a:ext cx="684943" cy="203343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E755B61E-2685-4BC5-914E-1B3D7B5DB815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696966" y="3638764"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171235</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>53510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074415CF-E31A-449D-8DDD-637FCE5D6FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696965" y="3852809"/>
+          <a:ext cx="4334410" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85618</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C1A844-A23C-4428-ACBC-F802C6B8BACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2696966" y="4066855"/>
+          <a:ext cx="2825394" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160534</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>192640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160534</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>192641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F136AB6-62C8-4D5C-947F-E7D573714219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1872894" y="4687584"/>
+          <a:ext cx="1327078" cy="428091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21405</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>21405</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88564BA-F9AB-4CAB-BB33-7A242D02FF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4944439" y="4698288"/>
+          <a:ext cx="856179" cy="438791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>149832</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>149831</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>214043</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F820A-93B2-43C3-9D60-67200508B9A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5929045" y="4698286"/>
+          <a:ext cx="856179" cy="438791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1141,7 +4252,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="O31" sqref="O31:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1415,28 +4526,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="24"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -1446,26 +4557,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="27"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="43"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1475,26 +4586,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="27"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="43"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1504,28 +4615,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="25" t="s">
-        <v>29</v>
+      <c r="H13" s="41" t="s">
+        <v>13</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="27"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1535,26 +4646,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="27"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="43"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1564,26 +4675,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="30"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1797,28 +4908,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31" t="s">
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
@@ -1830,24 +4941,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="36"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="31"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
@@ -1859,28 +4970,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="31" t="s">
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="28"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -1892,24 +5003,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="36"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="31"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -1921,28 +5032,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="31" t="s">
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="28"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -1954,24 +5065,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="36"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="31"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -1983,28 +5094,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="37">
-        <v>44525</v>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="32">
+        <v>44526</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="39"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="34"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -2016,24 +5127,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="42"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -2045,28 +5156,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="31" t="s">
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="28"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -2078,24 +5189,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="36"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -2107,28 +5218,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="37">
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="32">
         <v>44508</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="39"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="34"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -2140,28 +5251,34 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="42"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="37"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -2170,12 +5287,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,7 +5299,7 @@
   <dimension ref="A1:AY42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="AS23" sqref="AS23"/>
+      <selection activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2200,133 +5311,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="56" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="64" t="str">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="63" t="str">
         <f>表紙!O25</f>
         <v>顧客情報登録画面</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="58" t="s">
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="61" t="s">
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="53" t="s">
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="55"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="54"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="56" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="58" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60">
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="61" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="60">
-        <v>44525</v>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="59">
+        <v>44526</v>
       </c>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="55"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="54"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -2381,36 +5492,34 @@
       <c r="AX3" s="3"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -2435,34 +5544,34 @@
       <c r="AX4" s="3"/>
     </row>
     <row r="5" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -2487,15 +5596,15 @@
       <c r="AX5" s="3"/>
     </row>
     <row r="6" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2512,9 +5621,7 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -2541,35 +5648,33 @@
       <c r="AX6" s="3"/>
     </row>
     <row r="7" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="47" t="s">
-        <v>15</v>
-      </c>
+      <c r="K7" s="47"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2595,35 +5700,33 @@
       <c r="AX7" s="3"/>
     </row>
     <row r="8" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="47" t="s">
-        <v>16</v>
-      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="50"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2649,35 +5752,33 @@
       <c r="AX8" s="3"/>
     </row>
     <row r="9" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="50"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2703,15 +5804,15 @@
       <c r="AX9" s="3"/>
     </row>
     <row r="10" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -2733,8 +5834,8 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -2755,42 +5856,38 @@
       <c r="AX10" s="3"/>
     </row>
     <row r="11" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
@@ -2811,42 +5908,38 @@
       <c r="AX11" s="3"/>
     </row>
     <row r="12" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
@@ -2867,38 +5960,38 @@
       <c r="AX12" s="3"/>
     </row>
     <row r="13" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2919,51 +6012,39 @@
       <c r="AX13" s="3"/>
     </row>
     <row r="14" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="81" t="s">
-        <v>30</v>
-      </c>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -2983,21 +6064,21 @@
       <c r="AX14" s="3"/>
     </row>
     <row r="15" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3012,9 +6093,9 @@
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -3035,33 +6116,29 @@
       <c r="AX15" s="3"/>
     </row>
     <row r="16" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="78"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -3091,53 +6168,49 @@
       <c r="AX16" s="3"/>
     </row>
     <row r="17" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="8"/>
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8"/>
+      <c r="AQ17" s="8"/>
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
@@ -3147,51 +6220,49 @@
       <c r="AX17" s="3"/>
     </row>
     <row r="18" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
@@ -3201,51 +6272,49 @@
       <c r="AX18" s="3"/>
     </row>
     <row r="19" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="89"/>
-      <c r="AI19" s="89"/>
-      <c r="AJ19" s="89"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+      <c r="AH19" s="16"/>
+      <c r="AI19" s="16"/>
+      <c r="AJ19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
@@ -3255,51 +6324,49 @@
       <c r="AX19" s="3"/>
     </row>
     <row r="20" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
@@ -3309,49 +6376,49 @@
       <c r="AX20" s="3"/>
     </row>
     <row r="21" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
@@ -3361,19 +6428,17 @@
       <c r="AX21" s="3"/>
     </row>
     <row r="22" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -3415,26 +6480,24 @@
       <c r="AX22" s="3"/>
     </row>
     <row r="23" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="66" t="s">
-        <v>26</v>
-      </c>
+      <c r="L23" s="67"/>
       <c r="M23" s="67"/>
       <c r="N23" s="67"/>
       <c r="O23" s="67"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
-      <c r="R23" s="68"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -3445,21 +6508,17 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="68"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="67"/>
-      <c r="AL23" s="67"/>
-      <c r="AM23" s="68"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -3473,24 +6532,24 @@
       <c r="AX23" s="3"/>
     </row>
     <row r="24" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="71"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -3501,17 +6560,17 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="71"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="71"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18"/>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="3"/>
@@ -3593,38 +6652,38 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
     </row>
@@ -3645,38 +6704,38 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AJ27" s="12"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
       <c r="AW27" s="3"/>
       <c r="AX27" s="3"/>
     </row>
@@ -3697,38 +6756,38 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
       <c r="AW28" s="3"/>
       <c r="AX28" s="3"/>
     </row>
@@ -3749,38 +6808,38 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
       <c r="AW29" s="3"/>
       <c r="AX29" s="3"/>
     </row>
@@ -3801,38 +6860,38 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-      <c r="AI30" s="11"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
+      <c r="AL30" s="12"/>
+      <c r="AM30" s="12"/>
+      <c r="AN30" s="12"/>
+      <c r="AO30" s="12"/>
+      <c r="AP30" s="12"/>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
       <c r="AW30" s="3"/>
       <c r="AX30" s="3"/>
     </row>
@@ -3853,38 +6912,38 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
       <c r="AW31" s="3"/>
       <c r="AX31" s="3"/>
     </row>
@@ -3905,38 +6964,38 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
       <c r="AW32" s="3"/>
       <c r="AX32" s="3"/>
     </row>
@@ -3957,38 +7016,38 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="13"/>
-      <c r="AV33" s="13"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
       <c r="AW33" s="3"/>
       <c r="AX33" s="3"/>
     </row>
@@ -4009,38 +7068,38 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="17"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="17"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
+      <c r="AU34" s="12"/>
+      <c r="AV34" s="12"/>
       <c r="AW34" s="3"/>
       <c r="AX34" s="3"/>
     </row>
@@ -4061,38 +7120,38 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
       <c r="AW35" s="3"/>
       <c r="AX35" s="3"/>
     </row>
@@ -4113,38 +7172,38 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="13"/>
-      <c r="AP36" s="13"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="13"/>
-      <c r="AS36" s="13"/>
-      <c r="AT36" s="13"/>
-      <c r="AU36" s="13"/>
-      <c r="AV36" s="13"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="12"/>
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="12"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="12"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="12"/>
+      <c r="AN36" s="12"/>
+      <c r="AO36" s="12"/>
+      <c r="AP36" s="12"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="12"/>
+      <c r="AS36" s="12"/>
+      <c r="AT36" s="12"/>
+      <c r="AU36" s="12"/>
+      <c r="AV36" s="12"/>
       <c r="AW36" s="3"/>
       <c r="AX36" s="3"/>
     </row>
@@ -4165,310 +7224,289 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-      <c r="AD37" s="17"/>
-      <c r="AE37" s="17"/>
-      <c r="AF37" s="17"/>
-      <c r="AG37" s="17"/>
-      <c r="AH37" s="17"/>
-      <c r="AI37" s="17"/>
-      <c r="AJ37" s="17"/>
-      <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-      <c r="AN37" s="17"/>
-      <c r="AO37" s="17"/>
-      <c r="AP37" s="17"/>
-      <c r="AQ37" s="17"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
-      <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
-      <c r="AV37" s="13"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="16"/>
+      <c r="AF37" s="16"/>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="16"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="16"/>
+      <c r="AN37" s="16"/>
+      <c r="AO37" s="16"/>
+      <c r="AP37" s="16"/>
+      <c r="AQ37" s="16"/>
+      <c r="AR37" s="16"/>
+      <c r="AS37" s="16"/>
+      <c r="AT37" s="16"/>
+      <c r="AU37" s="16"/>
+      <c r="AV37" s="12"/>
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
     </row>
     <row r="38" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="17"/>
-      <c r="AG38" s="17"/>
-      <c r="AH38" s="17"/>
-      <c r="AI38" s="17"/>
-      <c r="AJ38" s="17"/>
-      <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-      <c r="AN38" s="17"/>
-      <c r="AO38" s="17"/>
-      <c r="AP38" s="17"/>
-      <c r="AQ38" s="17"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
-      <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="9"/>
-      <c r="AX38" s="9"/>
-      <c r="AY38" s="10"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="16"/>
+      <c r="AL38" s="16"/>
+      <c r="AM38" s="16"/>
+      <c r="AN38" s="16"/>
+      <c r="AO38" s="16"/>
+      <c r="AP38" s="16"/>
+      <c r="AQ38" s="16"/>
+      <c r="AR38" s="16"/>
+      <c r="AS38" s="16"/>
+      <c r="AT38" s="16"/>
+      <c r="AU38" s="16"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="8"/>
+      <c r="AX38" s="8"/>
+      <c r="AY38" s="9"/>
     </row>
     <row r="39" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
-      <c r="AR39" s="13"/>
-      <c r="AS39" s="13"/>
-      <c r="AT39" s="13"/>
-      <c r="AU39" s="13"/>
-      <c r="AV39" s="13"/>
-      <c r="AW39" s="9"/>
-      <c r="AX39" s="9"/>
-      <c r="AY39" s="10"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="8"/>
+      <c r="AX39" s="8"/>
+      <c r="AY39" s="9"/>
     </row>
     <row r="40" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="13"/>
-      <c r="AW40" s="9"/>
-      <c r="AX40" s="9"/>
-      <c r="AY40" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="18"/>
+      <c r="AL40" s="18"/>
+      <c r="AM40" s="18"/>
+      <c r="AN40" s="18"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="18"/>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="18"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="8"/>
+      <c r="AX40" s="8"/>
+      <c r="AY40" s="9"/>
     </row>
     <row r="41" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="13"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="13"/>
-      <c r="AW41" s="9"/>
-      <c r="AX41" s="9"/>
-      <c r="AY41" s="10"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="18"/>
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="18"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="8"/>
+      <c r="AX41" s="8"/>
+      <c r="AY41" s="9"/>
     </row>
     <row r="42" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9"/>
+      <c r="AP42" s="9"/>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+      <c r="AU42" s="9"/>
+      <c r="AV42" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="AI23:AM24"/>
-    <mergeCell ref="K4:AB5"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="K18:O18"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:U16"/>
-    <mergeCell ref="AC23:AG24"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="L23:R24"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="X14:Y14"/>
+  <mergeCells count="18">
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -4481,18 +7519,16 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="L23:R24"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:AA8"/>
     <mergeCell ref="J9:O9"/>
-    <mergeCell ref="P9:AA9"/>
-    <mergeCell ref="K11:O11"/>
     <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="K7:O7"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-3_レイアウト_顧客情報登録画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD0ECB1-51E1-4A28-8880-821C9B6BB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EBB03-CBFA-4B07-A3F8-505558339FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="180" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17880" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,33 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,48 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -540,6 +525,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3792,7 +3792,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン画面へ</a:t>
+            <a:t>前の画面へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4251,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="O31" sqref="O31:Z32"/>
     </sheetView>
   </sheetViews>
@@ -4526,28 +4526,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="40"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -4557,26 +4557,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="31"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -4586,26 +4586,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="31"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -4615,28 +4615,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="31"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -4646,26 +4646,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="31"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -4675,26 +4675,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -4908,28 +4908,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="28"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.4">
@@ -4941,24 +4941,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="31"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
@@ -4970,28 +4970,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="26" t="s">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="28"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.4">
@@ -5003,24 +5003,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="31"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -5032,28 +5032,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="28"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -5065,24 +5065,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="31"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
@@ -5094,28 +5094,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="32">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="41">
         <v>44526</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="34"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="43"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -5127,24 +5127,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="37"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="46"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.4">
@@ -5156,28 +5156,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="26" t="s">
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="28"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
@@ -5189,24 +5189,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="31"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.4">
@@ -5218,28 +5218,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="32">
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="41">
         <v>44508</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="34"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="43"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.4">
@@ -5251,34 +5251,28 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="37"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="46"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5287,6 +5281,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5298,8 +5298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E17609-127C-496E-A1C7-1BCE6BB5D0EA}">
   <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5311,133 +5311,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="55" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="63" t="str">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="58" t="str">
         <f>表紙!O25</f>
         <v>顧客情報登録画面</v>
       </c>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="57" t="s">
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="52" t="s">
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="60" t="s">
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="52" t="s">
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="54"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="49"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="55" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57" t="s">
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="59">
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="60" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="59">
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="54">
         <v>44526</v>
       </c>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="54"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="49"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
@@ -5658,11 +5658,11 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -5712,9 +5712,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
@@ -5761,12 +5761,12 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
@@ -6039,9 +6039,9 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
@@ -6491,13 +6491,13 @@
       <c r="I23" s="18"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -6543,13 +6543,13 @@
       <c r="I24" s="18"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -7507,6 +7507,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L23:R24"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="K7:O7"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -7519,12 +7525,6 @@
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="L23:R24"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="K7:O7"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
